--- a/LAPEntries/LAP-NplateMerging-OT2-1.0.0/VariablesMergeSamples.xlsx
+++ b/LAPEntries/LAP-NplateMerging-OT2-1.0.0/VariablesMergeSamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\scripts_subir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Downloads\Sample_Merge_LAP_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189D32D-0B33-46F6-9B72-2C39F1CB2F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E71905-746C-40AA-AA3D-5549182CEF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36570" yWindow="2580" windowWidth="23010" windowHeight="12360" xr2:uid="{50585E6E-E2EF-4A28-BDE0-017F3F02E844}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{50585E6E-E2EF-4A28-BDE0-017F3F02E844}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="192">
   <si>
     <t>Variables Names</t>
   </si>
@@ -167,484 +167,457 @@
     <t>Well Start Final Plate</t>
   </si>
   <si>
-    <t>Number Wells with Sample</t>
-  </si>
-  <si>
     <t>Number Samples Pick</t>
   </si>
   <si>
+    <t>PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>pBAMD12</t>
+  </si>
+  <si>
+    <t>KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>B1 pBLAM126T</t>
+  </si>
+  <si>
+    <t>C1 pBLAM126T</t>
+  </si>
+  <si>
+    <t>D1 pBLAM126T</t>
+  </si>
+  <si>
+    <t>F1 pBLAM126T</t>
+  </si>
+  <si>
+    <t>G1 pBLAM126T</t>
+  </si>
+  <si>
+    <t>D2 pBLAM126T</t>
+  </si>
+  <si>
+    <t>C2 pBLAM126T</t>
+  </si>
+  <si>
+    <t>E2 pBLAM126T</t>
+  </si>
+  <si>
+    <t>D4 pBLAM126T</t>
+  </si>
+  <si>
+    <t>E4 pBLAM126T</t>
+  </si>
+  <si>
+    <t>F4 pBLAM126T</t>
+  </si>
+  <si>
+    <t>G4 pBLAM126T</t>
+  </si>
+  <si>
+    <t>H4 pBLAM126T</t>
+  </si>
+  <si>
+    <t>B5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>C5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>D5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>E5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>F5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>G5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>H5 pBLAM126T</t>
+  </si>
+  <si>
+    <t>D6 pBLAM126T</t>
+  </si>
+  <si>
+    <t>E6 pBLAM126T</t>
+  </si>
+  <si>
+    <t>F6 pBLAM126T</t>
+  </si>
+  <si>
+    <t>G6 pBLAM126T</t>
+  </si>
+  <si>
+    <t>H6 pBLAM126T</t>
+  </si>
+  <si>
+    <t>A7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>H7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>A8 pBLAM126T</t>
+  </si>
+  <si>
+    <t>B8 pBLAM126T</t>
+  </si>
+  <si>
+    <t>B7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>C7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>D7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>E7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>F7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>G7 pBLAM126T</t>
+  </si>
+  <si>
+    <t>B1 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H1 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B2 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B3 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>E3 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D3 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>F3 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G3 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H3 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>A4 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D4 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>E4 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>F4 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G4 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H4 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B5 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>F5 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H5 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G5 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>A6 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B6 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B7 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>F6 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>C7 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D7 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G7 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H7 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>A8 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D8 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>C8 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>E8 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G8 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>A9 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B9 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D9 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G9 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B10 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G10 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>E10 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H10  PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B11 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D11 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>E11 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>F11 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>H11 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>B12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>A12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>C12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>D12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>E12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>F12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>G12 PIR2pBMAD126L1</t>
+  </si>
+  <si>
+    <t>A1 pBAMD12</t>
+  </si>
+  <si>
+    <t>F1 pBAMD12</t>
+  </si>
+  <si>
+    <t>G2 pBAMD12</t>
+  </si>
+  <si>
+    <t>A3 pBAMD12</t>
+  </si>
+  <si>
+    <t>C3 pBAMD12</t>
+  </si>
+  <si>
+    <t>F3 pBAMD12</t>
+  </si>
+  <si>
+    <t>G3 pBAMD12</t>
+  </si>
+  <si>
+    <t>H3 pBAMD12</t>
+  </si>
+  <si>
+    <t>B4 pBAMD12</t>
+  </si>
+  <si>
+    <t>A4 pBAMD12</t>
+  </si>
+  <si>
+    <t>D4 pBAMD12</t>
+  </si>
+  <si>
+    <t>E4 pBAMD12</t>
+  </si>
+  <si>
+    <t>H4 pBAMD12</t>
+  </si>
+  <si>
+    <t>A5 pBAMD12</t>
+  </si>
+  <si>
+    <t>C5 pBAMD12</t>
+  </si>
+  <si>
+    <t>E5 pBAMD12</t>
+  </si>
+  <si>
+    <t>G5 pBAMD12</t>
+  </si>
+  <si>
+    <t>A6 pBAMD12</t>
+  </si>
+  <si>
+    <t>D6 pBAMD12</t>
+  </si>
+  <si>
+    <t>F6 pBAMD12</t>
+  </si>
+  <si>
+    <t>C7 pBAMD12</t>
+  </si>
+  <si>
+    <t>D7 pBAMD12</t>
+  </si>
+  <si>
+    <t>F7 pBAMD12</t>
+  </si>
+  <si>
+    <t>E7 pBAMD12</t>
+  </si>
+  <si>
+    <t>H7 pBAMD12</t>
+  </si>
+  <si>
+    <t>B8 pBAMD12</t>
+  </si>
+  <si>
+    <t>C8 pBAMD12</t>
+  </si>
+  <si>
+    <t>A8 pBAMD12</t>
+  </si>
+  <si>
+    <t>D8 pBAMD12</t>
+  </si>
+  <si>
+    <t>E8 pBAMD12</t>
+  </si>
+  <si>
+    <t>F8 pBAMD12</t>
+  </si>
+  <si>
+    <t>G8 pBAMD12</t>
+  </si>
+  <si>
+    <t>H8 pBAMD12</t>
+  </si>
+  <si>
+    <t>C9 pBAMD12</t>
+  </si>
+  <si>
+    <t>D9 pBAMD12</t>
+  </si>
+  <si>
+    <t>F9 pBAMD12</t>
+  </si>
+  <si>
+    <t>G9 pBAMD12</t>
+  </si>
+  <si>
+    <t>A10 pBAMD12</t>
+  </si>
+  <si>
+    <t>B10 pBAMD12</t>
+  </si>
+  <si>
+    <t>F10 pBAMD12</t>
+  </si>
+  <si>
+    <t>H10 pBAMD12</t>
+  </si>
+  <si>
+    <t>B11 pBAMD12</t>
+  </si>
+  <si>
+    <t>G11 pBAMD12</t>
+  </si>
+  <si>
+    <t>E12 pBAMD12</t>
+  </si>
+  <si>
+    <t>F12 pBAMD12</t>
+  </si>
+  <si>
+    <t>H12 pBAMD12</t>
+  </si>
+  <si>
+    <t>H9 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>H7 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>C7 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>A7 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>G6 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>H5 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>D5 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>C4 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>E3 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>E2 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>A2 KT5L15L14L3PIR2</t>
+  </si>
+  <si>
+    <t>pBLAM126T</t>
+  </si>
+  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>pBLAM126T</t>
-  </si>
-  <si>
-    <t>PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>pBAMD12</t>
-  </si>
-  <si>
-    <t>KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>B1 pBLAM126T</t>
-  </si>
-  <si>
-    <t>C1 pBLAM126T</t>
-  </si>
-  <si>
-    <t>D1 pBLAM126T</t>
-  </si>
-  <si>
-    <t>F1 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G1 pBLAM126T</t>
-  </si>
-  <si>
-    <t>D2 pBLAM126T</t>
-  </si>
-  <si>
-    <t>C2 pBLAM126T</t>
-  </si>
-  <si>
-    <t>E2 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G2 pBLAM126T</t>
-  </si>
-  <si>
-    <t>H2 pBLAM126T</t>
-  </si>
-  <si>
-    <t>B3 pBLAM126T</t>
-  </si>
-  <si>
-    <t>C3 pBLAM126T</t>
-  </si>
-  <si>
-    <t>E3 pBLAM126T</t>
-  </si>
-  <si>
-    <t>F3 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G3 pBLAM126T</t>
-  </si>
-  <si>
-    <t>B4 pBLAM126T</t>
-  </si>
-  <si>
-    <t>D4 pBLAM126T</t>
-  </si>
-  <si>
-    <t>E4 pBLAM126T</t>
-  </si>
-  <si>
-    <t>F4 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G4 pBLAM126T</t>
-  </si>
-  <si>
-    <t>H4 pBLAM126T</t>
-  </si>
-  <si>
-    <t>B5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>C5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>D5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>E5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>F5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>H5 pBLAM126T</t>
-  </si>
-  <si>
-    <t>D6 pBLAM126T</t>
-  </si>
-  <si>
-    <t>E6 pBLAM126T</t>
-  </si>
-  <si>
-    <t>F6 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G6 pBLAM126T</t>
-  </si>
-  <si>
-    <t>H6 pBLAM126T</t>
-  </si>
-  <si>
-    <t>A7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>H7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>A8 pBLAM126T</t>
-  </si>
-  <si>
-    <t>B8 pBLAM126T</t>
-  </si>
-  <si>
-    <t>B7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>C7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>D7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>E7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>F7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>G7 pBLAM126T</t>
-  </si>
-  <si>
-    <t>B1 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H1 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B2 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B3 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>E3 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D3 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>F3 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G3 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H3 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>A4 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D4 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>E4 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>F4 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G4 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H4 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B5 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>F5 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H5 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G5 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>A6 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B6 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B7 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>F6 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>C7 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D7 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G7 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H7 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>A8 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D8 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>C8 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>E8 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G8 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>A9 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B9 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D9 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G9 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B10 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G10 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>E10 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H10  PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B11 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D11 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>E11 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>F11 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>H11 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>B12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>A12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>C12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>D12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>E12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>F12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>G12 PIR2pBMAD126L1</t>
-  </si>
-  <si>
-    <t>A1 pBAMD12</t>
-  </si>
-  <si>
-    <t>F1 pBAMD12</t>
-  </si>
-  <si>
-    <t>G2 pBAMD12</t>
-  </si>
-  <si>
-    <t>A3 pBAMD12</t>
-  </si>
-  <si>
-    <t>C3 pBAMD12</t>
-  </si>
-  <si>
-    <t>F3 pBAMD12</t>
-  </si>
-  <si>
-    <t>G3 pBAMD12</t>
-  </si>
-  <si>
-    <t>H3 pBAMD12</t>
-  </si>
-  <si>
-    <t>B4 pBAMD12</t>
-  </si>
-  <si>
-    <t>A4 pBAMD12</t>
-  </si>
-  <si>
-    <t>D4 pBAMD12</t>
-  </si>
-  <si>
-    <t>E4 pBAMD12</t>
-  </si>
-  <si>
-    <t>H4 pBAMD12</t>
-  </si>
-  <si>
-    <t>A5 pBAMD12</t>
-  </si>
-  <si>
-    <t>C5 pBAMD12</t>
-  </si>
-  <si>
-    <t>E5 pBAMD12</t>
-  </si>
-  <si>
-    <t>G5 pBAMD12</t>
-  </si>
-  <si>
-    <t>A6 pBAMD12</t>
-  </si>
-  <si>
-    <t>D6 pBAMD12</t>
-  </si>
-  <si>
-    <t>F6 pBAMD12</t>
-  </si>
-  <si>
-    <t>C7 pBAMD12</t>
-  </si>
-  <si>
-    <t>D7 pBAMD12</t>
-  </si>
-  <si>
-    <t>F7 pBAMD12</t>
-  </si>
-  <si>
-    <t>E7 pBAMD12</t>
-  </si>
-  <si>
-    <t>H7 pBAMD12</t>
-  </si>
-  <si>
-    <t>B8 pBAMD12</t>
-  </si>
-  <si>
-    <t>C8 pBAMD12</t>
-  </si>
-  <si>
-    <t>A8 pBAMD12</t>
-  </si>
-  <si>
-    <t>D8 pBAMD12</t>
-  </si>
-  <si>
-    <t>E8 pBAMD12</t>
-  </si>
-  <si>
-    <t>F8 pBAMD12</t>
-  </si>
-  <si>
-    <t>G8 pBAMD12</t>
-  </si>
-  <si>
-    <t>H8 pBAMD12</t>
-  </si>
-  <si>
-    <t>C9 pBAMD12</t>
-  </si>
-  <si>
-    <t>D9 pBAMD12</t>
-  </si>
-  <si>
-    <t>F9 pBAMD12</t>
-  </si>
-  <si>
-    <t>G9 pBAMD12</t>
-  </si>
-  <si>
-    <t>A10 pBAMD12</t>
-  </si>
-  <si>
-    <t>B10 pBAMD12</t>
-  </si>
-  <si>
-    <t>F10 pBAMD12</t>
-  </si>
-  <si>
-    <t>H10 pBAMD12</t>
-  </si>
-  <si>
-    <t>B11 pBAMD12</t>
-  </si>
-  <si>
-    <t>G11 pBAMD12</t>
-  </si>
-  <si>
-    <t>E12 pBAMD12</t>
-  </si>
-  <si>
-    <t>F12 pBAMD12</t>
-  </si>
-  <si>
-    <t>H12 pBAMD12</t>
-  </si>
-  <si>
-    <t>H9 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>H7 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>C7 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>A7 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>G6 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>H5 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>D5 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>C4 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>E3 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>E2 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>A2 KT5L15L14L3PIR2</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -725,8 +698,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94176970-FFF0-4024-AFD9-01E7769D9130}" name="Tabla2" displayName="Tabla2" ref="A1:L7" totalsRowShown="0">
-  <autoFilter ref="A1:L7" xr:uid="{94176970-FFF0-4024-AFD9-01E7769D9130}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94176970-FFF0-4024-AFD9-01E7769D9130}" name="Tabla2" displayName="Tabla2" ref="A1:L6" totalsRowShown="0">
+  <autoFilter ref="A1:L6" xr:uid="{94176970-FFF0-4024-AFD9-01E7769D9130}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EE63CA59-DECF-4E99-8F98-861DF8FC3A4B}" name="Variables Names"/>
     <tableColumn id="2" xr3:uid="{405BACAE-19DB-4436-A448-3A348CB15EB4}" name="Plate 1"/>
@@ -1044,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C873D0-84E0-4291-9900-AA19AAE71133}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69615A-3F96-4341-AFD0-C7E7496ED353}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1201,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1215,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD60EA1-985D-4091-A5FD-1B8D3E9E8BA1}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,103 +1242,86 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="C2">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <v>46</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
         <v>25</v>
       </c>
     </row>
@@ -1382,29 +1338,37 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>38</v>
@@ -1427,22 +1391,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -1465,22 +1429,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1503,19 +1467,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1541,19 +1505,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1579,19 +1543,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1617,19 +1581,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1655,19 +1619,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -1708,25 +1672,25 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
@@ -1746,25 +1710,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -1784,25 +1748,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
@@ -1822,25 +1786,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
         <v>38</v>
@@ -1860,22 +1824,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -1898,22 +1862,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -1936,22 +1900,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -1974,22 +1938,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2020,29 +1984,29 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>38</v>
@@ -2065,22 +2029,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -2103,22 +2067,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -2141,22 +2105,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -2179,22 +2143,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -2217,22 +2181,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -2255,19 +2219,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -2293,19 +2257,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -2339,7 +2303,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,10 +2325,10 @@
         <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
@@ -2399,10 +2363,10 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -2437,7 +2401,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -2475,7 +2439,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -2513,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -2551,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -2589,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -2624,10 +2588,10 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>

--- a/LAPEntries/LAP-NplateMerging-OT2-1.0.0/VariablesMergeSamples.xlsx
+++ b/LAPEntries/LAP-NplateMerging-OT2-1.0.0/VariablesMergeSamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Downloads\Sample_Merge_LAP_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E71905-746C-40AA-AA3D-5549182CEF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF782F5B-1D41-4098-9E0F-3ECC70BCF652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{50585E6E-E2EF-4A28-BDE0-017F3F02E844}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{50585E6E-E2EF-4A28-BDE0-017F3F02E844}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="192">
-  <si>
-    <t>Variables Names</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="191">
   <si>
     <t>Value</t>
   </si>
@@ -53,9 +50,6 @@
     <t>API Name Source Plate</t>
   </si>
   <si>
-    <t>vwrblueprintdepth105_96_wellplate_390ul</t>
-  </si>
-  <si>
     <t>API Name Final Plate</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>first</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Volume Reactive Transfer (uL)</t>
   </si>
   <si>
@@ -618,6 +609,12 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>Variable Names</t>
+  </si>
+  <si>
+    <t>nest_96_wellplate_200ul_flat</t>
   </si>
 </sst>
 </file>
@@ -679,7 +676,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3175CEE7-828E-4993-9DD6-588D152D62A3}" name="Tabla1" displayName="Tabla1" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{3175CEE7-828E-4993-9DD6-588D152D62A3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A5643FBC-0B1E-4AA8-9B25-70CFC3366807}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{A5643FBC-0B1E-4AA8-9B25-70CFC3366807}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{02AAFE25-6F9C-41F6-816B-671937ABD585}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -690,7 +687,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F2D3E6C-46C5-4197-A5E5-639F176FF19F}" name="Tabla3" displayName="Tabla3" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{2F2D3E6C-46C5-4197-A5E5-639F176FF19F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{458DD2F3-6F86-4C8F-9717-49692628246E}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{458DD2F3-6F86-4C8F-9717-49692628246E}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{79297C86-4CBF-4DF7-8B2D-A45A52645E7F}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -701,7 +698,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94176970-FFF0-4024-AFD9-01E7769D9130}" name="Tabla2" displayName="Tabla2" ref="A1:L6" totalsRowShown="0">
   <autoFilter ref="A1:L6" xr:uid="{94176970-FFF0-4024-AFD9-01E7769D9130}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EE63CA59-DECF-4E99-8F98-861DF8FC3A4B}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{EE63CA59-DECF-4E99-8F98-861DF8FC3A4B}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{405BACAE-19DB-4436-A448-3A348CB15EB4}" name="Plate 1"/>
     <tableColumn id="3" xr3:uid="{AB699973-A3EB-4E26-9E91-07EC6AD70C08}" name="Plate 2"/>
     <tableColumn id="4" xr3:uid="{C2988147-028A-4179-9851-EE1E32A2D956}" name="Plate 3"/>
@@ -1018,7 +1015,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,39 +1026,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1077,18 +1074,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1103,9 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69615A-3F96-4341-AFD0-C7E7496ED353}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1115,66 +1110,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1190,9 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD60EA1-985D-4091-A5FD-1B8D3E9E8BA1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1204,96 +1197,96 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -1310,7 +1303,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -1335,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0F38A2-166B-4750-BE3B-F682EFD71B26}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D1" activeCellId="2" sqref="A1:A8 C1:C8 D1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,308 +1344,125 @@
     <col min="6" max="6" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1662,316 +1472,184 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E8497F-DFE9-45EF-A0C1-576515061D30}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
         <v>114</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F7" t="s">
         <v>122</v>
       </c>
-      <c r="G3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
         <v>116</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1981,316 +1659,166 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660BF938-0D8E-4E46-879B-2FA836E8CDC6}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" activeCellId="1" sqref="A1:D8 E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
         <v>159</v>
       </c>
-      <c r="E2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>151</v>
       </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>160</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2300,316 +1828,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFF3C62-6411-4D2A-A0BE-5E51E18134EB}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="E1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G1" activeCellId="2" sqref="E8:F8 F1:F7 G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
+    <row r="1" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
         <v>179</v>
       </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
         <v>180</v>
       </c>
-      <c r="G2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
         <v>181</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
         <v>182</v>
       </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
         <v>183</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/LAPEntries/LAP-NplateMerging-OT2-1.0.0/VariablesMergeSamples.xlsx
+++ b/LAPEntries/LAP-NplateMerging-OT2-1.0.0/VariablesMergeSamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF782F5B-1D41-4098-9E0F-3ECC70BCF652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7196C3B-C0BA-499E-9165-EBE368006FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{50585E6E-E2EF-4A28-BDE0-017F3F02E844}"/>
+    <workbookView xWindow="696" yWindow="996" windowWidth="16572" windowHeight="11340" firstSheet="1" activeTab="2" xr2:uid="{50585E6E-E2EF-4A28-BDE0-017F3F02E844}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD60EA1-985D-4091-A5FD-1B8D3E9E8BA1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
